--- a/pred_ohlcv/54_21/2020-01-24 TRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 TRX ohlcv.xlsx
@@ -1796,7 +1796,7 @@
         <v>2820398.90563134</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>2820398.90563134</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>2839037.058131339</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>2749281.716931339</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>2759887.777537399</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>2759887.777537399</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>2759862.4482374</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>2832250.4103374</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>2832250.4103374</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>2824641.9294374</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>2824641.9294374</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>2824641.9294374</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>2924641.9294374</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>2890147.1143374</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>2895147.1143374</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>2884517.6537374</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>2884517.6537374</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>2817523.4419374</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>2817523.4419374</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>2817523.4419374</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>2713381.7073374</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>2742671.2989374</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>2701515.6340374</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>2712839.2022374</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>2397551.0351374</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>2403276.4208374</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>2448684.170137399</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>2439537.170137399</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>2825185.91342129</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>2825185.91342129</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>2925388.01342129</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>2925291.01342129</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>2927547.583421289</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>2927547.583421289</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>2913788.420921289</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>2919788.420921289</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>4581371.058821289</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>4581371.058821289</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>4581371.058821289</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>4566997.750421288</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>4567027.750421288</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>4968692.720121289</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>4968692.720121289</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>4965934.896121289</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>4964050.626121289</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>4964050.626121289</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>4927267.265421289</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>4968580.787164039</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>4968511.787164039</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>4987467.629691619</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>4946380.332376709</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>4937080.332376709</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>4937080.332376709</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>4936562.948276709</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>5223409.557602509</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>5220676.826902009</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>5220676.826902009</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>5220676.826902009</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>4968676.067402009</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>4968676.067402009</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>4968676.067402009</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>4968676.067402009</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>4999140.035377749</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>5079140.035377749</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>5078759.858777749</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>5088361.619023629</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>5088511.568569539</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>5088183.345910129</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>5064072.91311013</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>5064072.91311013</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>5063541.04351013</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>5114020.86752311</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>5510052.001423109</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>5510052.001423109</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>5510052.001423109</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>5510052.001423109</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>5657007.56702311</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>5510187.673023109</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>5511194.673023109</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>5511340.91608917</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>5511562.891895619</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>5411662.891895619</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>5411662.891895619</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>5413171.928095619</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>5392765.012995619</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>5392765.012995619</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>5392765.012995619</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>5392765.012995619</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>5392765.012995619</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>5392765.012995619</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>5392765.012995619</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>5392765.012995619</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>5365635.11149562</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>5685995.462495619</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>5679122.53479562</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>5678084.956095619</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>5643657.402995619</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>5644080.100795619</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>5641523.293095619</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>5606154.643695619</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>5607269.945095619</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>5407318.705095619</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>5028251.615595619</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>4564380.615595619</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>4656218.794995619</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>2394992.072057769</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>2394992.072057769</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>2347077.595257769</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>2352177.595257769</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>1953157.663957769</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>1968275.292957769</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>1968275.292957769</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>1968275.292957769</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>1965064.475257769</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>1965064.475257769</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>1945164.475257769</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>1945164.475257769</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>1946959.148057769</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>1940395.963657769</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>1940395.963657769</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>1940395.963657769</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>1940395.963657769</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>1940395.963657769</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>1623983.418457769</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>1497589.617557769</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>1663460.36215777</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>1663309.48955777</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>1608607.93755777</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>1613084.44365777</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>1597465.92115777</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>1713096.83325777</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>1734113.92295777</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>1734113.92295777</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>1734113.92295777</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>1734113.92295777</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>1734113.92295777</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>1736993.92295777</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>1736844.92295777</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>1818626.50285777</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>1800626.50285777</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>1804214.01145777</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>1801899.19595777</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>1818131.01705777</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>1828387.42731418</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>1822365.56421418</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>1446788.55191418</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>1447564.08171418</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>1447564.08171418</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>1447538.08171418</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>1440935.02461418</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>1444180.97281418</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>1444180.97281418</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>1444180.97281418</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>1413427.46913943</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>1413427.46913943</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>1374079.74523943</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>1379404.85443943</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>1379404.85443943</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>1379404.85443943</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>1379404.85443943</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>1379404.85443943</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>449867.1564394297</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>449867.1564394297</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>449867.1564394297</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>449867.1564394297</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>449867.1564394297</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>290367.1564394297</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>290367.1564394297</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>290367.1564394297</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>283973.1564394297</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>283973.1564394297</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>266473.1564394297</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>266473.1564394297</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>187787.1724394297</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>635449.4804785699</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>312620.1721785698</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-295507.0196214303</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-401308.6304214302</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-65456.36752143022</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-64421.19692143022</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-69905.66312143022</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-285504.7945214302</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-327412.7945214302</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-66560.03354256012</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-40360.03354256012</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-40360.03354256012</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-48103.21564256012</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-50075.16754256012</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-50075.16754256012</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-50075.16754256012</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-50075.16754256012</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>160241.1204574399</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>270141.1204574399</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>270141.1204574399</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>270141.1204574399</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>270141.1204574399</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>270141.1204574399</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>216099.6832574399</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>216099.6832574399</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>218702.3975574399</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>218702.3975574399</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>274213.6070574399</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>274213.6070574399</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>187885.8554574399</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>203885.8554574399</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>205485.8554574399</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>195485.8554574399</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>123837.5226574399</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>135744.6250763699</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>132027.6250763699</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>323049.8755763699</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>33602.48887636996</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>51538.91727636996</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>49582.91727636996</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>59347.05767636996</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-261546.46892363</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-1312281.82502363</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-1312281.82502363</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-1312281.82502363</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-1312281.82502363</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-1312281.82502363</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-1312281.82502363</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-1112281.82502363</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-1112281.82502363</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-1122281.82502363</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-1124305.65392363</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-5286431.009868339</v>
       </c>
       <c r="H631">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-5267919.338368339</v>
       </c>
       <c r="H632">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-5349675.565968338</v>
       </c>
       <c r="H633">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-5325403.409068339</v>
       </c>
       <c r="H634">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-5358804.300468339</v>
       </c>
       <c r="H635">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-5358804.300468339</v>
       </c>
       <c r="H636">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-5358804.300468339</v>
       </c>
       <c r="H637">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-5358804.300468339</v>
       </c>
       <c r="H638">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-5371534.721468339</v>
       </c>
       <c r="H639">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-5327274.247468338</v>
       </c>
       <c r="H640">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-24 TRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 TRX ohlcv.xlsx
@@ -704,7 +704,7 @@
         <v>2785078.203731339</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -756,7 +756,7 @@
         <v>2785078.203731339</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -834,7 +834,7 @@
         <v>2785111.189131339</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>2776087.530231339</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -912,7 +912,7 @@
         <v>2710219.784831339</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>2710192.555631339</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>2727628.40763134</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>2746584.22883134</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>2746584.22883134</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>2747587.22883134</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>2820398.90563134</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>2820398.90563134</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>2839037.058131339</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>2749281.716931339</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>2759887.777537399</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>2759862.4482374</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>2804372.1700374</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>2832250.4103374</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>2832250.4103374</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>2824641.9294374</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>2824641.9294374</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>2824641.9294374</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>2924641.9294374</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>2890147.1143374</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>2884517.6537374</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>2884517.6537374</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>2817523.4419374</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>2817523.4419374</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>2817523.4419374</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>2713381.7073374</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>2701515.6340374</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>2403276.4208374</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>2401391.1467374</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>2375828.774537399</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>2448684.170137399</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>2439537.170137399</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>2825185.91342129</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>2825185.91342129</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>2925388.01342129</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>2925291.01342129</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>2927547.583421289</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>2927547.583421289</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>2913788.420921289</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>2919788.420921289</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>4581371.058821289</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>4581371.058821289</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>4581371.058821289</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>4566997.750421288</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>4567027.750421288</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>4968692.720121289</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>4968692.720121289</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>4965934.896121289</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>4964050.626121289</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>4964050.626121289</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>4927267.265421289</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>4968580.787164039</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>4968511.787164039</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>4987467.629691619</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>4946380.332376709</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>4937080.332376709</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>4937080.332376709</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>4936562.948276709</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>5223409.557602509</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>5220676.826902009</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>5220676.826902009</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>5220676.826902009</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>4968676.067402009</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>4968676.067402009</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>4968676.067402009</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>4968676.067402009</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>4999140.035377749</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>5079140.035377749</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>5078759.858777749</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>5088361.619023629</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>5088511.568569539</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>5088183.345910129</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>5064072.91311013</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>5063541.04351013</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>5510052.001423109</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>5510052.001423109</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>5510052.001423109</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>5510052.001423109</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>5392765.012995619</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>2394992.072057769</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>2394992.072057769</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>2347077.595257769</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>2352177.595257769</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>1953157.663957769</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>1968275.292957769</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>1968275.292957769</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>1968275.292957769</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>1965064.475257769</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>1965064.475257769</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>1945164.475257769</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>1945164.475257769</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>1946959.148057769</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>1940395.963657769</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>1940395.963657769</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>1940395.963657769</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>1940395.963657769</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>1940395.963657769</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>1623983.418457769</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>1497589.617557769</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>1663460.36215777</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>1663309.48955777</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>1608607.93755777</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>1613084.44365777</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>1597465.92115777</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>1713096.83325777</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>1734113.92295777</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>1734113.92295777</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>1734113.92295777</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>1734113.92295777</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>1734113.92295777</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>1736993.92295777</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>1736844.92295777</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>1818626.50285777</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>1800626.50285777</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>1804214.01145777</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>1801899.19595777</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>1818131.01705777</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>1828387.42731418</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>1822365.56421418</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>1446788.55191418</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>1447564.08171418</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>1447564.08171418</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>1447538.08171418</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>1440935.02461418</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>1444180.97281418</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>1444180.97281418</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>1444180.97281418</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>1413427.46913943</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>1413427.46913943</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>1374079.74523943</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>1379404.85443943</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>1379404.85443943</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>1379404.85443943</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>1379404.85443943</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>1379404.85443943</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>449867.1564394297</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>449867.1564394297</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>449867.1564394297</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>449867.1564394297</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>449867.1564394297</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>290367.1564394297</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>290367.1564394297</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>290367.1564394297</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>283973.1564394297</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>283973.1564394297</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>266473.1564394297</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>266473.1564394297</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>187787.1724394297</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>635449.4804785699</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>312620.1721785698</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-295507.0196214303</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-401308.6304214302</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-65456.36752143022</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-64421.19692143022</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-69905.66312143022</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-285504.7945214302</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-327412.7945214302</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-66560.03354256012</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-40360.03354256012</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-40360.03354256012</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-48103.21564256012</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-50075.16754256012</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-50075.16754256012</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-50075.16754256012</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-50075.16754256012</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>160241.1204574399</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>270141.1204574399</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>270141.1204574399</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>270141.1204574399</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>270141.1204574399</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>270141.1204574399</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>216099.6832574399</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>216099.6832574399</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>218702.3975574399</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>218702.3975574399</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>274213.6070574399</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>274213.6070574399</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>187885.8554574399</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>203885.8554574399</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>205485.8554574399</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>195485.8554574399</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>123837.5226574399</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>135744.6250763699</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>132027.6250763699</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>323049.8755763699</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>33602.48887636996</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>51538.91727636996</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>49582.91727636996</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>59347.05767636996</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-261546.46892363</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-1312281.82502363</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-1312281.82502363</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-1312281.82502363</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-1312281.82502363</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-1312281.82502363</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-1312281.82502363</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-1112281.82502363</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-1112281.82502363</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-1122281.82502363</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-1124305.65392363</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-5349675.565968338</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-5325403.409068339</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-5358804.300468339</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-5358804.300468339</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-5358804.300468339</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-5358804.300468339</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-5371534.721468339</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-5327274.247468338</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="641" spans="1:8">
